--- a/Power Analysis Tool.xlsx
+++ b/Power Analysis Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Charabin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9EB864-AA49-42EF-B66A-F2CA01764DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86D4AEE-1C33-499A-8683-308130020CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{2B403101-23A2-4DA5-8CDA-D0FC1B30C087}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Minimum Detectable Effect (MDE)</t>
   </si>
   <si>
-    <t>Shared Control Adjustment</t>
-  </si>
-  <si>
     <t>SE Method</t>
   </si>
   <si>
@@ -117,7 +114,10 @@
     <t>Number of Analysis Units Required</t>
   </si>
   <si>
-    <t>Treatment Share</t>
+    <t>Shared Control</t>
+  </si>
+  <si>
+    <t>Treatment Sample Share</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -708,12 +708,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -727,7 +727,7 @@
     <row r="7" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="17">
         <v>0.8</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="9" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="17">
         <v>0.95</v>
@@ -744,7 +744,7 @@
     <row r="10" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -770,7 +770,7 @@
     <row r="12" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="7">
         <v>0.5</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="14" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="8">
         <v>0.25</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="15" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <f>SQRT(C14)</f>
@@ -795,7 +795,7 @@
     </row>
     <row r="16" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" cm="1">
         <f t="array" ref="C16">C4/IF(AND(C8=0.8,C9=0.95),2.8,NULL)</f>
@@ -807,23 +807,23 @@
     </row>
     <row r="18" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="14">
         <f>16*C14/($C4^2)</f>
@@ -832,7 +832,7 @@
     </row>
     <row r="22" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="14">
         <f>(C15/$C16)^2</f>
@@ -841,7 +841,7 @@
     </row>
     <row r="23" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="14">
         <f>C14*2/$C16^2</f>
@@ -850,7 +850,7 @@
     </row>
     <row r="24" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="14">
         <f>(C13*(1-C13))/($C16^2)</f>
@@ -859,7 +859,7 @@
     </row>
     <row r="25" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="16">
         <f>(2*(C13*(1-C13))/($C16^2))*2</f>
@@ -869,17 +869,17 @@
     <row r="26" spans="2:3" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2">
-        <f>VLOOKUP($C$18,$B$21:$C$25,2,FALSE)*$C$5*C6/0.5</f>
+        <f>VLOOKUP($C$18,$B$21:$C$25,2,FALSE)*IF(C6 = 0.5, 1, ABS((C6 - 0.5)/0.5))</f>
         <v>1224.9999999999998</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:3" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{5EAC188B-CD1F-4A7D-BC06-7DF37A7B024F}">
       <formula1>$B$21:$B$25</formula1>
     </dataValidation>
@@ -889,6 +889,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{5E5C69F7-443E-4D5C-8EA6-CA51066A1978}">
       <formula1>"0.95"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{D7C9B6CD-B70F-46C1-BF00-6295BF229182}">
+      <formula1>"True, False"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Power Analysis Tool.xlsx
+++ b/Power Analysis Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Charabin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86D4AEE-1C33-499A-8683-308130020CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B4CB5-47F3-4BD7-85AD-584DA3C1A284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{2B403101-23A2-4DA5-8CDA-D0FC1B30C087}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Minimum Detectable Effect (MDE)</t>
   </si>
   <si>
-    <t>SE Method</t>
-  </si>
-  <si>
     <t>Proportion</t>
   </si>
   <si>
@@ -90,12 +87,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>SE @ MDE</t>
-  </si>
-  <si>
-    <t>Standard Error Alternatives</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -118,6 +109,15 @@
   </si>
   <si>
     <t>Treatment Sample Share</t>
+  </si>
+  <si>
+    <t>Standard Error @ MDE</t>
+  </si>
+  <si>
+    <t>Test Design Alternative</t>
+  </si>
+  <si>
+    <t>Test Design Alternatives</t>
   </si>
 </sst>
 </file>
@@ -663,7 +663,7 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="5" spans="2:22" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="10" t="b">
         <v>0</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="6" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10">
         <v>0.5</v>
@@ -727,7 +727,7 @@
     <row r="7" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="17">
         <v>0.8</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="9" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="17">
         <v>0.95</v>
@@ -744,7 +744,7 @@
     <row r="10" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -770,7 +770,7 @@
     <row r="12" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="7">
         <v>0.5</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="14" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="8">
         <v>0.25</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="15" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <f>SQRT(C14)</f>
@@ -795,7 +795,7 @@
     </row>
     <row r="16" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" cm="1">
         <f t="array" ref="C16">C4/IF(AND(C8=0.8,C9=0.95),2.8,NULL)</f>
@@ -807,23 +807,23 @@
     </row>
     <row r="18" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" s="14">
         <f>16*C14/($C4^2)</f>
@@ -832,7 +832,7 @@
     </row>
     <row r="22" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22" s="14">
         <f>(C15/$C16)^2</f>
@@ -841,7 +841,7 @@
     </row>
     <row r="23" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B23" s="13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" s="14">
         <f>C14*2/$C16^2</f>
@@ -850,7 +850,7 @@
     </row>
     <row r="24" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B24" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="14">
         <f>(C13*(1-C13))/($C16^2)</f>
@@ -859,7 +859,7 @@
     </row>
     <row r="25" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C25" s="16">
         <f>(2*(C13*(1-C13))/($C16^2))*2</f>
@@ -869,7 +869,7 @@
     <row r="26" spans="2:3" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2">
         <f>VLOOKUP($C$18,$B$21:$C$25,2,FALSE)*IF(C6 = 0.5, 1, ABS((C6 - 0.5)/0.5))</f>

--- a/Power Analysis Tool.xlsx
+++ b/Power Analysis Tool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Charabin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B4CB5-47F3-4BD7-85AD-584DA3C1A284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851DEAFD-EBBF-4F32-95D3-1BD739566D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{2B403101-23A2-4DA5-8CDA-D0FC1B30C087}"/>
   </bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -799,7 +799,7 @@
       </c>
       <c r="C16" s="3" cm="1">
         <f t="array" ref="C16">C4/IF(AND(C8=0.8,C9=0.95),2.8,NULL)</f>
-        <v>1.4285714285714287E-2</v>
+        <v>1.785714285714286E-2</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -827,7 +827,7 @@
       </c>
       <c r="C21" s="14">
         <f>16*C14/($C4^2)</f>
-        <v>2500</v>
+        <v>1599.9999999999998</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -836,7 +836,7 @@
       </c>
       <c r="C22" s="14">
         <f>(C15/$C16)^2</f>
-        <v>1225</v>
+        <v>783.99999999999977</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -845,7 +845,7 @@
       </c>
       <c r="C23" s="14">
         <f>C14*2/$C16^2</f>
-        <v>2449.9999999999995</v>
+        <v>1567.9999999999995</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -854,7 +854,7 @@
       </c>
       <c r="C24" s="14">
         <f>(C13*(1-C13))/($C16^2)</f>
-        <v>1224.9999999999998</v>
+        <v>783.99999999999977</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -863,7 +863,7 @@
       </c>
       <c r="C25" s="16">
         <f>(2*(C13*(1-C13))/($C16^2))*2</f>
-        <v>4899.9999999999991</v>
+        <v>3135.9999999999991</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="14.5" x14ac:dyDescent="0.35"/>
@@ -872,8 +872,8 @@
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <f>VLOOKUP($C$18,$B$21:$C$25,2,FALSE)*IF(C6 = 0.5, 1, ABS((C6 - 0.5)/0.5))</f>
-        <v>1224.9999999999998</v>
+        <f>ROUND(VLOOKUP($C$18,$B$21:$C$25,2,FALSE)/IF(C6 = 0.5, 1, 1 - ABS((C6 - 0.5)/0.5)),0)</f>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="14.5" x14ac:dyDescent="0.35"/>

--- a/Power Analysis Tool.xlsx
+++ b/Power Analysis Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Charabin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851DEAFD-EBBF-4F32-95D3-1BD739566D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E834E7-BE04-4B6D-BFDF-A3B0E84F332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{2B403101-23A2-4DA5-8CDA-D0FC1B30C087}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{2B403101-23A2-4DA5-8CDA-D0FC1B30C087}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Analysis Tool" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Params</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Power Analysis</t>
   </si>
   <si>
-    <t>x̄ (or p)</t>
-  </si>
-  <si>
     <t>s^2</t>
   </si>
   <si>
@@ -114,10 +111,43 @@
     <t>Standard Error @ MDE</t>
   </si>
   <si>
-    <t>Test Design Alternative</t>
-  </si>
-  <si>
     <t>Test Design Alternatives</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Assumption of one tailed test with alternative hypothesis y_treatment &gt; y_control. Results are equivalent to alternative hypothesis of y_treatment &lt; y_control i.e. treatment reducing a negative outcome.</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>This will be the same as mean when the proportion is 0.5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assumes standard population standard deviation. This test is only </t>
+  </si>
+  <si>
+    <t>Proportion of outcomes (if applicable)</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can use a normal dist / z statistics - sufficient sample size met in a randomized experiment. </t>
+  </si>
+  <si>
+    <t>Assumes use of pooled sample standard deviation and equal sample share across control/treatment.</t>
+  </si>
+  <si>
+    <t>Commentary: 0.84 z score of 80th percentile power (can visualize NULL dist. Getting pushed back by this amount) + 1.96 SE from mean of NULL (total of 2.8 SE) can be set equal to the MDE dedectable effect to calculate SE.</t>
   </si>
 </sst>
 </file>
@@ -297,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,8 +339,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,10 +350,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81B3675-929E-40E8-9A8F-507909804924}">
-  <dimension ref="B1:V29"/>
+  <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -676,7 +708,7 @@
     <row r="1" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -699,198 +731,276 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="15"/>
+    </row>
     <row r="4" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10" t="b">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0.95</v>
-      </c>
-    </row>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-    </row>
-    <row r="12" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
+    <row r="14" spans="2:22" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <f>SQRT(C20)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" cm="1">
+        <f t="array" ref="C22">C11/IF(AND(C15=0.8,C16=0.95),2.8,NULL)</f>
+        <v>1.785714285714286E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <f>C25 +0.05</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <f>SQRT(C14)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3" cm="1">
-        <f t="array" ref="C16">C4/IF(AND(C8=0.8,C9=0.95),2.8,NULL)</f>
-        <v>1.785714285714286E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+      <c r="D30" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="31" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12">
+        <f>16*C20/($C11^2)</f>
+        <v>1599.9999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12">
+        <f>(C21/$C22)^2</f>
+        <v>783.99999999999977</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12">
+        <f>C20*2/$C22^2</f>
+        <v>1567.9999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="14">
-        <f>16*C14/($C4^2)</f>
-        <v>1599.9999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="14">
-        <f>(C15/$C16)^2</f>
-        <v>783.99999999999977</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="13" t="s">
+      <c r="C34" s="12" t="e">
+        <f>(#REF!*(1-#REF!))/($C22^2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="14">
-        <f>C14*2/$C16^2</f>
-        <v>1567.9999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="14">
-        <f>(C13*(1-C13))/($C16^2)</f>
-        <v>783.99999999999977</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
+      <c r="C35" s="19">
+        <f>(C25*(1-C25))/$C22^2 +(C26*(1-C26))/$C22^2</f>
+        <v>1560.1599999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="16">
-        <f>(2*(C13*(1-C13))/($C16^2))*2</f>
-        <v>3135.9999999999991</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="2">
-        <f>ROUND(VLOOKUP($C$18,$B$21:$C$25,2,FALSE)/IF(C6 = 0.5, 1, 1 - ABS((C6 - 0.5)/0.5)),0)</f>
-        <v>784</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="2:3" ht="14.5" x14ac:dyDescent="0.35"/>
+      <c r="C37" s="2">
+        <f>ROUND(VLOOKUP($C$28,$B$31:$C$35,2,FALSE)/IF(C13 = 0.5, 1, 1 - ABS((C13 - 0.5)/0.5)),0)</f>
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:4" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18" xr:uid="{5EAC188B-CD1F-4A7D-BC06-7DF37A7B024F}">
-      <formula1>$B$21:$B$25</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28" xr:uid="{5EAC188B-CD1F-4A7D-BC06-7DF37A7B024F}">
+      <formula1>"Difference of Means,Difference of Proportions"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{71B69884-27A1-4E6A-ACCA-428838ECFAF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{71B69884-27A1-4E6A-ACCA-428838ECFAF1}">
       <formula1>"0.8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{5E5C69F7-443E-4D5C-8EA6-CA51066A1978}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{5E5C69F7-443E-4D5C-8EA6-CA51066A1978}">
       <formula1>"0.95"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{D7C9B6CD-B70F-46C1-BF00-6295BF229182}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{D7C9B6CD-B70F-46C1-BF00-6295BF229182}">
       <formula1>"True, False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{D4FF9BAD-3712-4135-A182-78602C283673}">
+      <formula1>"0.5"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Power Analysis Tool.xlsx
+++ b/Power Analysis Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Charabin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E834E7-BE04-4B6D-BFDF-A3B0E84F332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAA20DE-DB37-46B8-9C5F-60111D6C6800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{2B403101-23A2-4DA5-8CDA-D0FC1B30C087}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{2B403101-23A2-4DA5-8CDA-D0FC1B30C087}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Analysis Tool" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Params</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Test Design Alternatives</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Assumptions</t>
@@ -694,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81B3675-929E-40E8-9A8F-507909804924}">
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -708,7 +705,7 @@
     <row r="1" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -736,17 +733,17 @@
     </row>
     <row r="4" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="14.5" x14ac:dyDescent="0.35"/>
@@ -871,7 +868,7 @@
         <v>1.785714285714286E-2</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
@@ -879,13 +876,13 @@
     </row>
     <row r="24" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="16">
         <v>0.5</v>
@@ -893,10 +890,10 @@
     </row>
     <row r="26" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B26" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <f>C25 +0.05</f>
+        <f>C25+C11</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -905,7 +902,7 @@
     </row>
     <row r="28" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>11</v>
@@ -918,9 +915,6 @@
       <c r="C30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="31" spans="2:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
@@ -940,7 +934,7 @@
         <v>783.99999999999977</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -961,7 +955,7 @@
         <v>#REF!</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -988,7 +982,7 @@
   </sheetData>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28" xr:uid="{5EAC188B-CD1F-4A7D-BC06-7DF37A7B024F}">
-      <formula1>"Difference of Means,Difference of Proportions"</formula1>
+      <formula1>"Rule of Thumb,Difference of Means,Difference of Proportions"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{71B69884-27A1-4E6A-ACCA-428838ECFAF1}">
       <formula1>"0.8"</formula1>
